--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1877787C-A0F5-2848-897B-F343B619E078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20502E66-38CC-5B48-B3B7-3A843623ACB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>Number</t>
   </si>
@@ -163,6 +163,165 @@
   </si>
   <si>
     <t xml:space="preserve">Array, DP, Stack, Two Pointer, </t>
+  </si>
+  <si>
+    <t>GDL001</t>
+  </si>
+  <si>
+    <t>Delete Alternate Nodes</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/delete-alternate-nodes/1/?page=1&amp;category[]=Linked%20List&amp;query=page1category[]Linked%20List</t>
+  </si>
+  <si>
+    <t>HDL001</t>
+  </si>
+  <si>
+    <t>Reverse a linked list</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/reverse-a-linked-list/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>LDL001</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Cycle Detection</t>
+  </si>
+  <si>
+    <t>HDL002</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/detect-whether-a-linked-list-contains-a-cycle/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t>LDL002</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-list/</t>
+  </si>
+  <si>
+    <t>Count Pairs whose sum is equal to X</t>
+  </si>
+  <si>
+    <t>GDL002</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-pairs-whose-sum-is-equal-to-x/1/?page=1&amp;category[]=Linked%20List&amp;query=page1category[]Linked%20List</t>
+  </si>
+  <si>
+    <t>Remove duplicates from sorted list 2</t>
+  </si>
+  <si>
+    <t>LDL003</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>Occurence of an integer in a Linked List</t>
+  </si>
+  <si>
+    <t>GDL003</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/occurence-of-an-integer-in-a-linked-list/1/?page=1&amp;category[]=Searching&amp;category[]=Linked%20List&amp;query=page1category[]Searchingcategory[]Linked%20List</t>
+  </si>
+  <si>
+    <t>Minimum Loss</t>
+  </si>
+  <si>
+    <t>HAS001</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/minimum-loss/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>LAS001</t>
+  </si>
+  <si>
+    <t>Array, Search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>HAS002</t>
+  </si>
+  <si>
+    <t>Maximum Subarray Sum</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/maximum-subarray-sum/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Short Palindrome</t>
+  </si>
+  <si>
+    <t>HAS003</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/short-palindrome/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Median of two sorted arrays</t>
+  </si>
+  <si>
+    <t>LAS002</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>LAS003</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element/</t>
+  </si>
+  <si>
+    <t>Gridland Metro</t>
+  </si>
+  <si>
+    <t>HAS004</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/gridland-metro/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Reverse nodes in k group</t>
+  </si>
+  <si>
+    <t>LDL004</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>Design Twitter - LL Ver.</t>
+  </si>
+  <si>
+    <t>LDL005</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-twitter/</t>
   </si>
 </sst>
 </file>
@@ -534,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,6 +894,295 @@
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D0D94381-7422-4B47-8C75-0A8E2CEA4AD8}"/>
@@ -747,6 +1195,23 @@
     <hyperlink ref="D9" r:id="rId8" xr:uid="{A0CA9A4C-0BD3-A041-BD49-995C95759B08}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{609AB5D6-EB24-ED44-9443-D13384F26A8B}"/>
     <hyperlink ref="D11" r:id="rId10" xr:uid="{500CEA34-C770-F445-9D54-4DA9C0334044}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{F8B41769-1563-344D-A11D-630A0B1FEB18}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{A0306CCA-DE24-0243-98DE-7B6A52EA637A}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{AC05675A-E5D3-2746-B760-B9393E382D32}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{CD68637D-A11A-7A49-B56B-A402B8554DD4}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{455C8125-A033-F045-AD4D-24BAE43FDF84}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{1C164363-9938-BD4D-A10B-231B0ADE8AB6}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{545D8605-EEAB-624F-8FC7-38B9C19DCC0C}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{B102E35A-DCE5-214F-BE96-5406B6CC9F12}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{3758B887-C6ED-594A-8090-96771CF41F66}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{502DDED4-84AA-5743-A608-70DE50FA28B7}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{DA02D8FA-F5B0-FB4A-9F94-536BEA2D8768}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{2E4FE841-B68A-EA42-A797-29185F3B7936}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{0EDCE016-B892-3740-BBE6-2DE947CFD5E6}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{7BDC6A29-D9CD-E049-9453-9F401184D2C9}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{EA8683FC-E326-9C43-9143-2E5897AE7C2E}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{903FF688-FD4B-384D-A059-E65B3BEA1867}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{43C88849-F2ED-B546-9D1F-E4B4591A9BFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en908\Documents\GitHub\K_Coders_HKU\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20502E66-38CC-5B48-B3B7-3A843623ACB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FC118A-49AF-4DEB-9B08-F7738F52EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
   <si>
     <t>Number</t>
   </si>
@@ -322,17 +322,142 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/design-twitter/</t>
+  </si>
+  <si>
+    <t>HST001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/closest-numbers/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/closest-numbers/problem?isFullScreen=true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closest Numbers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BST001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌표 압축</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/18870</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LST001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>LST002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/russian-doll-envelopes/</t>
+  </si>
+  <si>
+    <t>HST002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fradulent Activity Notifications</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BST002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이순 정렬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/10814</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1181</t>
+  </si>
+  <si>
+    <t>BST003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어 정렬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HST003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lily's Homework</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/lilys-homework/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LST003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/</t>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallest Range Covering Elements from K Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists/</t>
+  </si>
+  <si>
+    <t>LST004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,7 +465,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -348,8 +473,15 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -693,20 +825,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.3046875" customWidth="1"/>
+    <col min="3" max="3" width="25.3046875" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,381 +856,381 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1115,7 +1247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1132,87 +1264,266 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E34" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
+    <sortCondition ref="A38"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D0D94381-7422-4B47-8C75-0A8E2CEA4AD8}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{35974DDB-64BD-F848-8DD7-DF3CB9E7DAA7}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3958CBC5-586A-5541-A8BB-4BDDBC0C1F65}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{AE151E0D-C4C5-5546-AFC7-161EC7E9FAB2}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{61CB08F6-364E-FE49-A5D3-09122DA4227B}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{6B57C765-D45D-F44C-8616-1D6BD5421F23}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{8D1387EF-90DD-084D-98FE-314BF8F9F57C}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{A0CA9A4C-0BD3-A041-BD49-995C95759B08}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{609AB5D6-EB24-ED44-9443-D13384F26A8B}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{500CEA34-C770-F445-9D54-4DA9C0334044}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{F8B41769-1563-344D-A11D-630A0B1FEB18}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{A0306CCA-DE24-0243-98DE-7B6A52EA637A}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{AC05675A-E5D3-2746-B760-B9393E382D32}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{CD68637D-A11A-7A49-B56B-A402B8554DD4}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{455C8125-A033-F045-AD4D-24BAE43FDF84}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{1C164363-9938-BD4D-A10B-231B0ADE8AB6}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{545D8605-EEAB-624F-8FC7-38B9C19DCC0C}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{B102E35A-DCE5-214F-BE96-5406B6CC9F12}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{3758B887-C6ED-594A-8090-96771CF41F66}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{502DDED4-84AA-5743-A608-70DE50FA28B7}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{DA02D8FA-F5B0-FB4A-9F94-536BEA2D8768}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{2E4FE841-B68A-EA42-A797-29185F3B7936}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{D0D94381-7422-4B47-8C75-0A8E2CEA4AD8}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{35974DDB-64BD-F848-8DD7-DF3CB9E7DAA7}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{3958CBC5-586A-5541-A8BB-4BDDBC0C1F65}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{AE151E0D-C4C5-5546-AFC7-161EC7E9FAB2}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{61CB08F6-364E-FE49-A5D3-09122DA4227B}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{6B57C765-D45D-F44C-8616-1D6BD5421F23}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{8D1387EF-90DD-084D-98FE-314BF8F9F57C}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{A0CA9A4C-0BD3-A041-BD49-995C95759B08}"/>
+    <hyperlink ref="D28" r:id="rId9" xr:uid="{609AB5D6-EB24-ED44-9443-D13384F26A8B}"/>
+    <hyperlink ref="D29" r:id="rId10" xr:uid="{500CEA34-C770-F445-9D54-4DA9C0334044}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{F8B41769-1563-344D-A11D-630A0B1FEB18}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{A0306CCA-DE24-0243-98DE-7B6A52EA637A}"/>
+    <hyperlink ref="D30" r:id="rId13" xr:uid="{AC05675A-E5D3-2746-B760-B9393E382D32}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{CD68637D-A11A-7A49-B56B-A402B8554DD4}"/>
+    <hyperlink ref="D31" r:id="rId15" xr:uid="{455C8125-A033-F045-AD4D-24BAE43FDF84}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{1C164363-9938-BD4D-A10B-231B0ADE8AB6}"/>
+    <hyperlink ref="D32" r:id="rId17" xr:uid="{545D8605-EEAB-624F-8FC7-38B9C19DCC0C}"/>
+    <hyperlink ref="D9" r:id="rId18" xr:uid="{B102E35A-DCE5-214F-BE96-5406B6CC9F12}"/>
+    <hyperlink ref="D10" r:id="rId19" xr:uid="{3758B887-C6ED-594A-8090-96771CF41F66}"/>
+    <hyperlink ref="D23" r:id="rId20" xr:uid="{502DDED4-84AA-5743-A608-70DE50FA28B7}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{DA02D8FA-F5B0-FB4A-9F94-536BEA2D8768}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{2E4FE841-B68A-EA42-A797-29185F3B7936}"/>
     <hyperlink ref="D24" r:id="rId23" xr:uid="{0EDCE016-B892-3740-BBE6-2DE947CFD5E6}"/>
     <hyperlink ref="D25" r:id="rId24" xr:uid="{7BDC6A29-D9CD-E049-9453-9F401184D2C9}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{EA8683FC-E326-9C43-9143-2E5897AE7C2E}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{903FF688-FD4B-384D-A059-E65B3BEA1867}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{43C88849-F2ED-B546-9D1F-E4B4591A9BFC}"/>
+    <hyperlink ref="D13" r:id="rId25" xr:uid="{EA8683FC-E326-9C43-9143-2E5897AE7C2E}"/>
+    <hyperlink ref="D33" r:id="rId26" xr:uid="{903FF688-FD4B-384D-A059-E65B3BEA1867}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{43C88849-F2ED-B546-9D1F-E4B4591A9BFC}"/>
+    <hyperlink ref="D19" r:id="rId28" xr:uid="{6AD7A658-1E55-4418-9AB5-2E22DB0D9AA3}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{3C2D14F9-1E64-445D-BA9E-B8340D10B822}"/>
+    <hyperlink ref="D20" r:id="rId30" xr:uid="{6E69E554-1145-4646-9583-AA1F699BE741}"/>
+    <hyperlink ref="D37" r:id="rId31" xr:uid="{22618222-381E-4910-A768-875C68720BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en908\Documents\GitHub\K_Coders_HKU\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/K_Coders_HKU/Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FC118A-49AF-4DEB-9B08-F7738F52EA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C597A-C10D-9746-9D82-48DBB01A2195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="218">
   <si>
     <t>Number</t>
   </si>
@@ -447,6 +447,270 @@
   <si>
     <t>LST004</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS005</t>
+  </si>
+  <si>
+    <t>Insertion Sort 1</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/insertionsort1/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HAS006</t>
+  </si>
+  <si>
+    <t>Insertion Sort 2</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/insertionsort2/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HAS007</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/quicksort1/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>HAS008</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/countingsort4/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>LAS004</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/</t>
+  </si>
+  <si>
+    <t>Relative Sort Array</t>
+  </si>
+  <si>
+    <t>LAS005</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/relative-sort-array/</t>
+  </si>
+  <si>
+    <t>Sort Matrix Diagonally</t>
+  </si>
+  <si>
+    <t>LAS006</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-the-matrix-diagonally/</t>
+  </si>
+  <si>
+    <t>Equal Stacks</t>
+  </si>
+  <si>
+    <t>HDS001</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/equal-stacks/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Largest Rectangle</t>
+  </si>
+  <si>
+    <t>HDS002</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/largest-rectangle/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Maximum Frequency Stack</t>
+  </si>
+  <si>
+    <t>LDS001</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-frequency-stack/</t>
+  </si>
+  <si>
+    <t>Balanced Brackets</t>
+  </si>
+  <si>
+    <t>HDS003</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/balanced-brackets/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Queue Using Two Stacks</t>
+  </si>
+  <si>
+    <t>HDQ001</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/queue-using-two-stacks/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Queue Operations</t>
+  </si>
+  <si>
+    <t>GDQ001</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/queue-operations/1/?category[]=Queue&amp;category[]=Queue&amp;page=1&amp;query=category[]Queuepage1category[]Queue</t>
+  </si>
+  <si>
+    <t>Reverse First k Elements of Queue</t>
+  </si>
+  <si>
+    <t>GDQ002</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/reverse-first-k-elements-of-queue/1/?category[]=Queue&amp;category[]=Queue&amp;page=1&amp;query=category[]Queuepage1category[]Queue</t>
+  </si>
+  <si>
+    <t>Design Front Middle Back Queue</t>
+  </si>
+  <si>
+    <t>LDQ001</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-front-middle-back-queue/</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>LDB001</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>Print Binary Tree</t>
+  </si>
+  <si>
+    <t>LDB002</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/print-binary-tree/</t>
+  </si>
+  <si>
+    <t>Binary Tree Pruning</t>
+  </si>
+  <si>
+    <t>LDB003</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-pruning/</t>
+  </si>
+  <si>
+    <t>Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/tree-preorder-traversal/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HDB002</t>
+  </si>
+  <si>
+    <t>HDB003</t>
+  </si>
+  <si>
+    <t>Tree Height</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/tree-height-of-a-binary-tree/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Dinner Plate Stacks</t>
+  </si>
+  <si>
+    <t>LDS002</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/dinner-plate-stacks/</t>
+  </si>
+  <si>
+    <t>HDS004</t>
+  </si>
+  <si>
+    <t>Poisonous Plants</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/poisonous-plants/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Castle on the Grid</t>
+  </si>
+  <si>
+    <t>HDQ002</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/castle-on-the-grid/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LDQ002</t>
+  </si>
+  <si>
+    <t>Orderly Queue</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/orderly-queue/</t>
+  </si>
+  <si>
+    <t>LDQ003</t>
+  </si>
+  <si>
+    <t>Number of Visible People in a Queue</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-visible-people-in-a-queue/</t>
+  </si>
+  <si>
+    <t>HDQ003</t>
+  </si>
+  <si>
+    <t>Truck Tour</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/truck-tour/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HDB001</t>
+  </si>
+  <si>
+    <t>Tree Huffman Decoding</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/tree-huffman-decoding/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LDB004</t>
+  </si>
+  <si>
+    <t>Binary Tree Cameras</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-cameras/</t>
   </si>
 </sst>
 </file>
@@ -457,7 +721,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -465,7 +729,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -473,13 +737,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -506,10 +770,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -825,20 +1090,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.3046875" customWidth="1"/>
-    <col min="3" max="3" width="25.3046875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,7 +1121,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -873,7 +1138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -890,7 +1155,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -907,7 +1172,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -924,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -941,7 +1206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -958,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -975,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -992,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1009,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1026,7 +1291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1043,7 +1308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1060,7 +1325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1094,7 +1359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1111,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1128,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1145,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -1162,7 +1427,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -1179,7 +1444,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -1196,7 +1461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1230,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1247,7 +1512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1264,7 +1529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1298,7 +1563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1332,7 +1597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1349,7 +1614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1366,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1383,7 +1648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -1400,7 +1665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1417,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -1434,7 +1699,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -1451,7 +1716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -1468,7 +1733,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -1483,6 +1748,482 @@
       </c>
       <c r="E38" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1522,8 +2263,10 @@
     <hyperlink ref="D35" r:id="rId29" xr:uid="{3C2D14F9-1E64-445D-BA9E-B8340D10B822}"/>
     <hyperlink ref="D20" r:id="rId30" xr:uid="{6E69E554-1145-4646-9583-AA1F699BE741}"/>
     <hyperlink ref="D37" r:id="rId31" xr:uid="{22618222-381E-4910-A768-875C68720BF3}"/>
+    <hyperlink ref="D40" r:id="rId32" xr:uid="{15433A48-30B3-F941-A927-BB6E3A18C23D}"/>
+    <hyperlink ref="D56" r:id="rId33" xr:uid="{9F877109-3E63-274F-A360-2C1E7FAE21F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/K_Coders_HKU/Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388C597A-C10D-9746-9D82-48DBB01A2195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5A8129-7EB2-6A4A-AD5A-97F1046620DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="254">
   <si>
     <t>Number</t>
   </si>
@@ -711,6 +711,114 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-cameras/</t>
+  </si>
+  <si>
+    <t>Is this Binary Search Tree?</t>
+  </si>
+  <si>
+    <t>HDB004</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/is-binary-search-tree/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>LDB005</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>HDB005</t>
+  </si>
+  <si>
+    <t>Balanced Forest</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/balanced-forest/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LDB007</t>
+  </si>
+  <si>
+    <t>Unique BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-binary-search-trees/</t>
+  </si>
+  <si>
+    <t>LDB006</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Square Ten Tree</t>
+  </si>
+  <si>
+    <t>HDB006</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/square-ten-tree/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Kitty's Calculations on a Tree</t>
+  </si>
+  <si>
+    <t>HDG001</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kittys-calculations-on-a-tree/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HDA004</t>
+  </si>
+  <si>
+    <t>Find the Running Median</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/find-the-running-median/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LDH001</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-ladder/</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>LDB008</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Max Points on a Line</t>
+  </si>
+  <si>
+    <t>LDA005</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-points-on-a-line/</t>
   </si>
 </sst>
 </file>
@@ -1090,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,6 +2331,193 @@
         <v>217</v>
       </c>
       <c r="E66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" t="s">
+        <v>239</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
+      </c>
+      <c r="E77" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2265,8 +2560,9 @@
     <hyperlink ref="D37" r:id="rId31" xr:uid="{22618222-381E-4910-A768-875C68720BF3}"/>
     <hyperlink ref="D40" r:id="rId32" xr:uid="{15433A48-30B3-F941-A927-BB6E3A18C23D}"/>
     <hyperlink ref="D56" r:id="rId33" xr:uid="{9F877109-3E63-274F-A360-2C1E7FAE21F7}"/>
+    <hyperlink ref="D73" r:id="rId34" xr:uid="{A28E1286-6EEE-484B-96C4-6CF5B89FB458}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/K_Coders_HKU/Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5A8129-7EB2-6A4A-AD5A-97F1046620DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014BE066-D786-024A-99EB-353F75E7A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="269">
   <si>
     <t>Number</t>
   </si>
@@ -819,6 +819,51 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/max-points-on-a-line/</t>
+  </si>
+  <si>
+    <t>LDG001</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/</t>
+  </si>
+  <si>
+    <t>LDG002</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule</t>
+  </si>
+  <si>
+    <t>LDG003</t>
+  </si>
+  <si>
+    <t>LDG004</t>
+  </si>
+  <si>
+    <t>LDG005</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>Course Schedule 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reconstruct-itinerary/</t>
   </si>
 </sst>
 </file>
@@ -1198,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2518,6 +2563,91 @@
         <v>253</v>
       </c>
       <c r="E77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" t="s">
+        <v>239</v>
+      </c>
+      <c r="D79" t="s">
+        <v>259</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" t="s">
+        <v>268</v>
+      </c>
+      <c r="E82" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/K_Coders_HKU/Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014BE066-D786-024A-99EB-353F75E7A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D43399B-9E94-9C43-A8E2-33F8478D95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="317">
   <si>
     <t>Number</t>
   </si>
@@ -864,6 +864,150 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reconstruct-itinerary/</t>
+  </si>
+  <si>
+    <t>LDA006</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>LAB002</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>LAB003</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t>LAB004</t>
+  </si>
+  <si>
+    <t>LAB005</t>
+  </si>
+  <si>
+    <t>LAB006</t>
+  </si>
+  <si>
+    <t>LAB007</t>
+  </si>
+  <si>
+    <t>LAB008</t>
+  </si>
+  <si>
+    <t>LAB009</t>
+  </si>
+  <si>
+    <t>LAB010</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
+  </si>
+  <si>
+    <t>Word Ladder 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-ladder-ii/</t>
+  </si>
+  <si>
+    <t>Lexicographical Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lexicographical-numbers/</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-division/</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
+  </si>
+  <si>
+    <t>Path Sum 3</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/</t>
+  </si>
+  <si>
+    <t>Most Frequent Subtree Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-frequent-subtree-sum/</t>
+  </si>
+  <si>
+    <t>HAG001</t>
+  </si>
+  <si>
+    <t>HAG002</t>
+  </si>
+  <si>
+    <t>HAG003</t>
+  </si>
+  <si>
+    <t>HAG004</t>
+  </si>
+  <si>
+    <t>HAG005</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Minimum Absolute Difference in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hackerrank.com/challenges/minimum-absolute-difference-in-an-array/problem?isFullScreen=true </t>
+  </si>
+  <si>
+    <t>Luck Balance</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/luck-balance/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Maximum Perimeter Triangle</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/maximum-perimeter-triangle/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Candies</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/candies/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Largest Permutation</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/largest-permutation/problem?isFullScreen=true</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1760,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -2649,6 +2793,261 @@
       </c>
       <c r="E82" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C84" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" t="s">
+        <v>292</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" t="s">
+        <v>286</v>
+      </c>
+      <c r="D90" t="s">
+        <v>296</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>299</v>
+      </c>
+      <c r="C92" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" t="s">
+        <v>309</v>
+      </c>
+      <c r="C94" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" t="s">
+        <v>310</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>303</v>
+      </c>
+      <c r="B95" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>304</v>
+      </c>
+      <c r="B96" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" t="s">
+        <v>314</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2691,8 +3090,10 @@
     <hyperlink ref="D40" r:id="rId32" xr:uid="{15433A48-30B3-F941-A927-BB6E3A18C23D}"/>
     <hyperlink ref="D56" r:id="rId33" xr:uid="{9F877109-3E63-274F-A360-2C1E7FAE21F7}"/>
     <hyperlink ref="D73" r:id="rId34" xr:uid="{A28E1286-6EEE-484B-96C4-6CF5B89FB458}"/>
+    <hyperlink ref="D84" r:id="rId35" xr:uid="{562ADE0A-D12E-2D4F-94B9-051AF249B35B}"/>
+    <hyperlink ref="D92" r:id="rId36" xr:uid="{4EB8E87C-DD07-614D-8001-3B770F57E14C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/K_Coders_HKU/Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D43399B-9E94-9C43-A8E2-33F8478D95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3920F92-0E0E-A14A-8F1F-A8D900279D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="372">
   <si>
     <t>Number</t>
   </si>
@@ -1008,6 +1008,171 @@
   </si>
   <si>
     <t>https://www.hackerrank.com/challenges/largest-permutation/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HAG006</t>
+  </si>
+  <si>
+    <t>HAG007</t>
+  </si>
+  <si>
+    <t>HAG008</t>
+  </si>
+  <si>
+    <t>HAG009</t>
+  </si>
+  <si>
+    <t>HAG010</t>
+  </si>
+  <si>
+    <t>Sherlock and Toys</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlock-and-the-beast?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Greedy Florist</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/greedy-florist/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Max Min</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/angry-children?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Permuting Two Arrays</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/two-arrays?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Cloudy Day</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/cloudy-day?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HAG011</t>
+  </si>
+  <si>
+    <t>Goodland Electricity</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/pylons?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LAG001</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gas-station/</t>
+  </si>
+  <si>
+    <t>LAG002</t>
+  </si>
+  <si>
+    <t>LAG003</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicate-letters/</t>
+  </si>
+  <si>
+    <t>Integer Replacement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-replacement/</t>
+  </si>
+  <si>
+    <t>LAG004</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/queue-reconstruction-by-height/</t>
+  </si>
+  <si>
+    <t>HAG012</t>
+  </si>
+  <si>
+    <t>Board Cutting</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/board-cutting/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LAB011</t>
+  </si>
+  <si>
+    <t>LAB012</t>
+  </si>
+  <si>
+    <t>LAB013</t>
+  </si>
+  <si>
+    <t>Concatenated Words</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/concatenated-words/</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-invalid-parentheses/</t>
+  </si>
+  <si>
+    <t>HAG013</t>
+  </si>
+  <si>
+    <t>Team Formation</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/team-formation?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LAG005</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <t>LAG006</t>
+  </si>
+  <si>
+    <t>Strong Password Checker</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/strong-password-checker/</t>
+  </si>
+  <si>
+    <t>LAG007</t>
+  </si>
+  <si>
+    <t>Min Cost to Hire k Workers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-hire-k-workers/</t>
+  </si>
+  <si>
+    <t>LAG008</t>
+  </si>
+  <si>
+    <t>Stamping the Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/stamping-the-sequence/</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3048,6 +3213,329 @@
       </c>
       <c r="E97" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98" t="s">
+        <v>322</v>
+      </c>
+      <c r="C98" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" t="s">
+        <v>323</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" t="s">
+        <v>325</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" t="s">
+        <v>327</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>320</v>
+      </c>
+      <c r="B101" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" t="s">
+        <v>329</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" t="s">
+        <v>331</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>332</v>
+      </c>
+      <c r="B103" t="s">
+        <v>333</v>
+      </c>
+      <c r="C103" t="s">
+        <v>306</v>
+      </c>
+      <c r="D103" t="s">
+        <v>334</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>335</v>
+      </c>
+      <c r="B104" t="s">
+        <v>336</v>
+      </c>
+      <c r="C104" t="s">
+        <v>306</v>
+      </c>
+      <c r="D104" t="s">
+        <v>337</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105" t="s">
+        <v>340</v>
+      </c>
+      <c r="C105" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" t="s">
+        <v>341</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" t="s">
+        <v>306</v>
+      </c>
+      <c r="D106" t="s">
+        <v>343</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>344</v>
+      </c>
+      <c r="B107" t="s">
+        <v>345</v>
+      </c>
+      <c r="C107" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107" t="s">
+        <v>346</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>347</v>
+      </c>
+      <c r="B108" t="s">
+        <v>348</v>
+      </c>
+      <c r="C108" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" t="s">
+        <v>349</v>
+      </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>350</v>
+      </c>
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" t="s">
+        <v>286</v>
+      </c>
+      <c r="D109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>351</v>
+      </c>
+      <c r="B110" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" t="s">
+        <v>354</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>352</v>
+      </c>
+      <c r="B111" t="s">
+        <v>355</v>
+      </c>
+      <c r="C111" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" t="s">
+        <v>356</v>
+      </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>357</v>
+      </c>
+      <c r="B112" t="s">
+        <v>358</v>
+      </c>
+      <c r="C112" t="s">
+        <v>306</v>
+      </c>
+      <c r="D112" t="s">
+        <v>359</v>
+      </c>
+      <c r="E112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" t="s">
+        <v>361</v>
+      </c>
+      <c r="C113" t="s">
+        <v>306</v>
+      </c>
+      <c r="D113" t="s">
+        <v>362</v>
+      </c>
+      <c r="E113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>363</v>
+      </c>
+      <c r="B114" t="s">
+        <v>364</v>
+      </c>
+      <c r="C114" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" t="s">
+        <v>365</v>
+      </c>
+      <c r="E114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>366</v>
+      </c>
+      <c r="B115" t="s">
+        <v>367</v>
+      </c>
+      <c r="C115" t="s">
+        <v>306</v>
+      </c>
+      <c r="D115" t="s">
+        <v>368</v>
+      </c>
+      <c r="E115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>369</v>
+      </c>
+      <c r="B116" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" t="s">
+        <v>306</v>
+      </c>
+      <c r="D116" t="s">
+        <v>371</v>
+      </c>
+      <c r="E116" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/Problems_DB.xlsx
+++ b/Reference/Problems_DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/K_Coders_HKU/Reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3920F92-0E0E-A14A-8F1F-A8D900279D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED476DF-B4F4-9A44-9405-DBBC3D757DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="15620" xr2:uid="{CCBF7CBE-323A-B946-A7A6-256A8E1F6F44}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="418">
   <si>
     <t>Number</t>
   </si>
@@ -1173,6 +1173,144 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/stamping-the-sequence/</t>
+  </si>
+  <si>
+    <t>HAD001</t>
+  </si>
+  <si>
+    <t>HAD002</t>
+  </si>
+  <si>
+    <t>HAD003</t>
+  </si>
+  <si>
+    <t>HAD004</t>
+  </si>
+  <si>
+    <t>HAD005</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/coin-change/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Fibonacci Modified</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/fibonacci-modified/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Decibinary Numbers</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/decibinary-numbers/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlock-and-cost/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Sherlock and Cost</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/abbr/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>HAD006</t>
+  </si>
+  <si>
+    <t>HAD007</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/maxsubarray/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>Lego Blocks</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/lego-blocks/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>HAD008</t>
+  </si>
+  <si>
+    <t>Stock Maximize</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/stockmax/problem?isFullScreen=true</t>
+  </si>
+  <si>
+    <t>LAD001</t>
+  </si>
+  <si>
+    <t>LAD002</t>
+  </si>
+  <si>
+    <t>LAD003</t>
+  </si>
+  <si>
+    <t>LAD004</t>
+  </si>
+  <si>
+    <t>LAD005</t>
+  </si>
+  <si>
+    <t>LAD006</t>
+  </si>
+  <si>
+    <t>LAD007</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break/</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-largest-sum/</t>
+  </si>
+  <si>
+    <t>Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>Dice Roll Simulation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/dice-roll-simulation/</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEAD92-DF16-6F40-823D-6403D4A35067}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="106" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3535,6 +3673,261 @@
         <v>371</v>
       </c>
       <c r="E116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>372</v>
+      </c>
+      <c r="B117" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" t="s">
+        <v>378</v>
+      </c>
+      <c r="D117" t="s">
+        <v>379</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>373</v>
+      </c>
+      <c r="B118" t="s">
+        <v>380</v>
+      </c>
+      <c r="C118" t="s">
+        <v>378</v>
+      </c>
+      <c r="D118" t="s">
+        <v>381</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>374</v>
+      </c>
+      <c r="B119" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" t="s">
+        <v>383</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>375</v>
+      </c>
+      <c r="B120" t="s">
+        <v>385</v>
+      </c>
+      <c r="C120" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120" t="s">
+        <v>384</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>376</v>
+      </c>
+      <c r="B121" t="s">
+        <v>387</v>
+      </c>
+      <c r="C121" t="s">
+        <v>378</v>
+      </c>
+      <c r="D121" t="s">
+        <v>386</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>388</v>
+      </c>
+      <c r="B122" t="s">
+        <v>390</v>
+      </c>
+      <c r="C122" t="s">
+        <v>378</v>
+      </c>
+      <c r="D122" t="s">
+        <v>391</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" t="s">
+        <v>392</v>
+      </c>
+      <c r="C123" t="s">
+        <v>378</v>
+      </c>
+      <c r="D123" t="s">
+        <v>393</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>394</v>
+      </c>
+      <c r="B124" t="s">
+        <v>395</v>
+      </c>
+      <c r="C124" t="s">
+        <v>378</v>
+      </c>
+      <c r="D124" t="s">
+        <v>396</v>
+      </c>
+      <c r="E124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>397</v>
+      </c>
+      <c r="B125" t="s">
+        <v>404</v>
+      </c>
+      <c r="C125" t="s">
+        <v>378</v>
+      </c>
+      <c r="D125" t="s">
+        <v>405</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>398</v>
+      </c>
+      <c r="B126" t="s">
+        <v>406</v>
+      </c>
+      <c r="C126" t="s">
+        <v>378</v>
+      </c>
+      <c r="D126" t="s">
+        <v>407</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" t="s">
+        <v>408</v>
+      </c>
+      <c r="C127" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" t="s">
+        <v>409</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" t="s">
+        <v>410</v>
+      </c>
+      <c r="C128" t="s">
+        <v>378</v>
+      </c>
+      <c r="D128" t="s">
+        <v>411</v>
+      </c>
+      <c r="E128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>401</v>
+      </c>
+      <c r="B129" t="s">
+        <v>412</v>
+      </c>
+      <c r="C129" t="s">
+        <v>378</v>
+      </c>
+      <c r="D129" t="s">
+        <v>413</v>
+      </c>
+      <c r="E129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>402</v>
+      </c>
+      <c r="B130" t="s">
+        <v>415</v>
+      </c>
+      <c r="C130" t="s">
+        <v>378</v>
+      </c>
+      <c r="D130" t="s">
+        <v>414</v>
+      </c>
+      <c r="E130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>403</v>
+      </c>
+      <c r="B131" t="s">
+        <v>416</v>
+      </c>
+      <c r="C131" t="s">
+        <v>378</v>
+      </c>
+      <c r="D131" t="s">
+        <v>417</v>
+      </c>
+      <c r="E131" t="s">
         <v>24</v>
       </c>
     </row>
